--- a/data/trans_camb/P11_R-Habitat-trans_camb.xlsx
+++ b/data/trans_camb/P11_R-Habitat-trans_camb.xlsx
@@ -685,47 +685,47 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-17,75; 3,22</t>
+          <t>-19,52; 1,44</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>-8,27; 15,63</t>
+          <t>-8,19; 16,15</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>6,86; 31,69</t>
+          <t>5,6; 31,02</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>-11,75; 10,59</t>
+          <t>-12,97; 12,4</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>-16,25; 9,09</t>
+          <t>-16,37; 6,98</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>-5,04; 14,93</t>
+          <t>-5,66; 15,74</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>-12,64; 3,49</t>
+          <t>-12,2; 4,04</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>-9,11; 8,63</t>
+          <t>-9,15; 8,31</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>4,49; 21,24</t>
+          <t>3,36; 19,54</t>
         </is>
       </c>
     </row>
@@ -791,47 +791,47 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>-59,26; 18,87</t>
+          <t>-61,48; 12,62</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>-26,52; 82,76</t>
+          <t>-26,97; 81,61</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>20,68; 175,4</t>
+          <t>18,42; 168,55</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>-29,91; 35,57</t>
+          <t>-33,04; 40,68</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>-41,11; 31,0</t>
+          <t>-41,95; 23,69</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>-12,86; 53,8</t>
+          <t>-13,76; 55,6</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>-38,09; 12,93</t>
+          <t>-36,16; 17,09</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>-26,53; 34,26</t>
+          <t>-25,92; 33,32</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>12,55; 85,13</t>
+          <t>9,68; 78,05</t>
         </is>
       </c>
     </row>
@@ -901,47 +901,47 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-6,95; 2,4</t>
+          <t>-6,61; 2,72</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-7,8; 1,44</t>
+          <t>-7,25; 1,68</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>2,62; 12,43</t>
+          <t>2,47; 12,74</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-0,12; 10,64</t>
+          <t>-0,04; 10,73</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>-1,12; 9,46</t>
+          <t>-1,7; 9,31</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>5,43; 15,86</t>
+          <t>6,09; 16,06</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>-2,41; 5,04</t>
+          <t>-2,01; 5,05</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>-2,98; 4,44</t>
+          <t>-3,36; 4,21</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>5,56; 12,72</t>
+          <t>5,7; 12,88</t>
         </is>
       </c>
     </row>
@@ -1007,47 +1007,47 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-28,72; 12,37</t>
+          <t>-27,85; 14,0</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-33,24; 7,35</t>
+          <t>-30,59; 9,04</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>11,3; 65,03</t>
+          <t>10,32; 66,39</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-0,54; 40,51</t>
+          <t>-0,26; 40,19</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>-3,76; 35,89</t>
+          <t>-5,52; 35,05</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>16,55; 60,71</t>
+          <t>19,31; 62,2</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>-8,92; 21,22</t>
+          <t>-7,44; 21,63</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>-10,86; 18,65</t>
+          <t>-12,46; 18,34</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>20,32; 54,58</t>
+          <t>21,0; 55,19</t>
         </is>
       </c>
     </row>
@@ -1117,47 +1117,47 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>1,59; 8,84</t>
+          <t>1,31; 8,44</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>-0,67; 6,29</t>
+          <t>-0,52; 6,57</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>3,48; 11,49</t>
+          <t>3,06; 11,88</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>0,5; 8,82</t>
+          <t>0,55; 9,17</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>-0,78; 7,27</t>
+          <t>-1,24; 7,52</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>6,81; 15,04</t>
+          <t>6,66; 14,44</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>2,25; 7,65</t>
+          <t>2,3; 7,82</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>0,53; 6,07</t>
+          <t>0,71; 6,14</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>6,09; 12,07</t>
+          <t>6,2; 12,18</t>
         </is>
       </c>
     </row>
@@ -1223,47 +1223,47 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>8,68; 63,2</t>
+          <t>6,84; 59,04</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>-4,12; 45,07</t>
+          <t>-3,14; 46,22</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>20,59; 81,99</t>
+          <t>19,03; 85,26</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>1,81; 35,99</t>
+          <t>1,66; 36,25</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>-2,73; 29,51</t>
+          <t>-4,51; 30,55</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>23,69; 62,57</t>
+          <t>23,14; 59,8</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>9,29; 37,98</t>
+          <t>10,31; 38,79</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>2,63; 30,88</t>
+          <t>3,17; 31,17</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>27,51; 61,39</t>
+          <t>26,99; 61,93</t>
         </is>
       </c>
     </row>
@@ -1333,47 +1333,47 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>-10,28; -2,45</t>
+          <t>-9,72; -1,93</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>-6,2; 1,96</t>
+          <t>-6,33; 2,13</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>0,42; 9,51</t>
+          <t>0,46; 9,96</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>-11,87; -2,36</t>
+          <t>-11,66; -1,61</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>-13,44; -3,65</t>
+          <t>-13,46; -3,65</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>-5,39; 25,84</t>
+          <t>-5,95; 26,05</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>-9,51; -3,19</t>
+          <t>-9,74; -3,07</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>-8,68; -1,74</t>
+          <t>-8,69; -1,73</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>-0,45; 20,53</t>
+          <t>-0,93; 19,56</t>
         </is>
       </c>
     </row>
@@ -1439,47 +1439,47 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>-47,47; -13,59</t>
+          <t>-46,22; -11,28</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>-28,54; 11,67</t>
+          <t>-29,68; 12,45</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>0,94; 55,82</t>
+          <t>1,29; 56,49</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>-32,11; -6,92</t>
+          <t>-30,52; -4,81</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>-35,88; -11,12</t>
+          <t>-35,87; -11,38</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>-15,26; 79,07</t>
+          <t>-16,8; 77,29</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>-32,98; -12,26</t>
+          <t>-33,53; -11,52</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>-29,76; -6,92</t>
+          <t>-29,39; -6,55</t>
         </is>
       </c>
       <c r="K19" s="2" t="inlineStr">
         <is>
-          <t>-1,63; 78,72</t>
+          <t>-3,25; 73,19</t>
         </is>
       </c>
     </row>
@@ -1549,47 +1549,47 @@
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>0,59; 7,72</t>
+          <t>0,64; 7,65</t>
         </is>
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>-2,53; 4,12</t>
+          <t>-2,57; 4,15</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>7,67; 15,3</t>
+          <t>7,71; 15,07</t>
         </is>
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>0,34; 8,22</t>
+          <t>0,38; 8,54</t>
         </is>
       </c>
       <c r="G21" s="2" t="inlineStr">
         <is>
-          <t>-4,48; 3,49</t>
+          <t>-4,6; 3,36</t>
         </is>
       </c>
       <c r="H21" s="2" t="inlineStr">
         <is>
-          <t>8,78; 16,62</t>
+          <t>8,72; 16,61</t>
         </is>
       </c>
       <c r="I21" s="2" t="inlineStr">
         <is>
-          <t>1,85; 7,1</t>
+          <t>1,77; 7,19</t>
         </is>
       </c>
       <c r="J21" s="2" t="inlineStr">
         <is>
-          <t>-2,24; 2,86</t>
+          <t>-2,41; 2,78</t>
         </is>
       </c>
       <c r="K21" s="2" t="inlineStr">
         <is>
-          <t>9,29; 14,95</t>
+          <t>9,73; 15,0</t>
         </is>
       </c>
     </row>
@@ -1655,47 +1655,47 @@
       </c>
       <c r="C23" s="2" t="inlineStr">
         <is>
-          <t>3,04; 49,87</t>
+          <t>3,55; 48,13</t>
         </is>
       </c>
       <c r="D23" s="2" t="inlineStr">
         <is>
-          <t>-13,59; 27,7</t>
+          <t>-13,77; 26,73</t>
         </is>
       </c>
       <c r="E23" s="2" t="inlineStr">
         <is>
-          <t>40,98; 100,19</t>
+          <t>38,58; 97,96</t>
         </is>
       </c>
       <c r="F23" s="2" t="inlineStr">
         <is>
-          <t>1,23; 32,64</t>
+          <t>1,41; 32,97</t>
         </is>
       </c>
       <c r="G23" s="2" t="inlineStr">
         <is>
-          <t>-15,5; 13,91</t>
+          <t>-15,84; 12,82</t>
         </is>
       </c>
       <c r="H23" s="2" t="inlineStr">
         <is>
-          <t>30,01; 65,94</t>
+          <t>30,1; 66,44</t>
         </is>
       </c>
       <c r="I23" s="2" t="inlineStr">
         <is>
-          <t>7,66; 33,82</t>
+          <t>7,23; 33,51</t>
         </is>
       </c>
       <c r="J23" s="2" t="inlineStr">
         <is>
-          <t>-9,38; 13,74</t>
+          <t>-10,07; 13,26</t>
         </is>
       </c>
       <c r="K23" s="2" t="inlineStr">
         <is>
-          <t>38,67; 71,55</t>
+          <t>40,95; 71,48</t>
         </is>
       </c>
     </row>
@@ -1765,47 +1765,47 @@
       </c>
       <c r="C25" s="2" t="inlineStr">
         <is>
-          <t>-1,23; 2,61</t>
+          <t>-1,27; 2,52</t>
         </is>
       </c>
       <c r="D25" s="2" t="inlineStr">
         <is>
-          <t>-1,61; 2,23</t>
+          <t>-1,53; 2,21</t>
         </is>
       </c>
       <c r="E25" s="2" t="inlineStr">
         <is>
-          <t>5,9; 10,35</t>
+          <t>6,11; 10,35</t>
         </is>
       </c>
       <c r="F25" s="2" t="inlineStr">
         <is>
-          <t>-0,24; 4,36</t>
+          <t>-0,01; 4,32</t>
         </is>
       </c>
       <c r="G25" s="2" t="inlineStr">
         <is>
-          <t>-2,73; 1,7</t>
+          <t>-2,64; 1,85</t>
         </is>
       </c>
       <c r="H25" s="2" t="inlineStr">
         <is>
-          <t>7,12; 15,79</t>
+          <t>7,0; 16,26</t>
         </is>
       </c>
       <c r="I25" s="2" t="inlineStr">
         <is>
-          <t>-0,13; 2,85</t>
+          <t>-0,08; 2,95</t>
         </is>
       </c>
       <c r="J25" s="2" t="inlineStr">
         <is>
-          <t>-1,48; 1,55</t>
+          <t>-1,48; 1,58</t>
         </is>
       </c>
       <c r="K25" s="2" t="inlineStr">
         <is>
-          <t>7,53; 12,92</t>
+          <t>7,63; 13,12</t>
         </is>
       </c>
     </row>
@@ -1871,47 +1871,47 @@
       </c>
       <c r="C27" s="2" t="inlineStr">
         <is>
-          <t>-6,4; 15,18</t>
+          <t>-6,6; 14,51</t>
         </is>
       </c>
       <c r="D27" s="2" t="inlineStr">
         <is>
-          <t>-8,49; 12,95</t>
+          <t>-8,07; 12,82</t>
         </is>
       </c>
       <c r="E27" s="2" t="inlineStr">
         <is>
-          <t>31,33; 60,11</t>
+          <t>32,07; 59,59</t>
         </is>
       </c>
       <c r="F27" s="2" t="inlineStr">
         <is>
-          <t>-0,81; 15,43</t>
+          <t>0,03; 15,7</t>
         </is>
       </c>
       <c r="G27" s="2" t="inlineStr">
         <is>
-          <t>-9,02; 6,03</t>
+          <t>-8,81; 6,47</t>
         </is>
       </c>
       <c r="H27" s="2" t="inlineStr">
         <is>
-          <t>23,74; 53,59</t>
+          <t>23,18; 55,92</t>
         </is>
       </c>
       <c r="I27" s="2" t="inlineStr">
         <is>
-          <t>-0,57; 12,3</t>
+          <t>-0,34; 12,69</t>
         </is>
       </c>
       <c r="J27" s="2" t="inlineStr">
         <is>
-          <t>-5,99; 6,77</t>
+          <t>-6,07; 6,94</t>
         </is>
       </c>
       <c r="K27" s="2" t="inlineStr">
         <is>
-          <t>30,96; 55,75</t>
+          <t>31,38; 55,93</t>
         </is>
       </c>
     </row>

--- a/data/trans_camb/P11_R-Habitat-trans_camb.xlsx
+++ b/data/trans_camb/P11_R-Habitat-trans_camb.xlsx
@@ -567,7 +567,7 @@
       </c>
       <c r="D2" s="3" t="inlineStr">
         <is>
-          <t>2015/2007</t>
+          <t>2016/2007</t>
         </is>
       </c>
       <c r="E2" s="3" t="inlineStr">
@@ -582,7 +582,7 @@
       </c>
       <c r="G2" s="3" t="inlineStr">
         <is>
-          <t>2015/2007</t>
+          <t>2016/2007</t>
         </is>
       </c>
       <c r="H2" s="3" t="inlineStr">
@@ -597,7 +597,7 @@
       </c>
       <c r="J2" s="3" t="inlineStr">
         <is>
-          <t>2015/2007</t>
+          <t>2016/2007</t>
         </is>
       </c>
       <c r="K2" s="3" t="inlineStr">
@@ -622,7 +622,7 @@
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>Menos de 2</t>
+          <t>&lt;2.000hab</t>
         </is>
       </c>
       <c r="B4" s="3" t="inlineStr">
@@ -685,47 +685,47 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-19,52; 1,44</t>
+          <t>-17,56; 3,18</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>-8,19; 16,15</t>
+          <t>-8,09; 16,66</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>5,6; 31,02</t>
+          <t>5,96; 31,97</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>-12,97; 12,4</t>
+          <t>-12,58; 13,04</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>-16,37; 6,98</t>
+          <t>-16,26; 7,09</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>-5,66; 15,74</t>
+          <t>-4,55; 16,77</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>-12,2; 4,04</t>
+          <t>-12,01; 4,56</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>-9,15; 8,31</t>
+          <t>-8,4; 7,95</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>3,36; 19,54</t>
+          <t>4,16; 19,83</t>
         </is>
       </c>
     </row>
@@ -791,54 +791,54 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>-61,48; 12,62</t>
+          <t>-57,24; 16,59</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>-26,97; 81,61</t>
+          <t>-25,72; 90,74</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>18,42; 168,55</t>
+          <t>15,49; 163,86</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>-33,04; 40,68</t>
+          <t>-31,78; 48,02</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>-41,95; 23,69</t>
+          <t>-39,79; 24,65</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>-13,76; 55,6</t>
+          <t>-11,33; 59,5</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>-36,16; 17,09</t>
+          <t>-35,92; 17,44</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>-25,92; 33,32</t>
+          <t>-25,39; 31,27</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>9,68; 78,05</t>
+          <t>11,6; 79,03</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>2/10</t>
+          <t>2-10.000 hab</t>
         </is>
       </c>
       <c r="B8" s="3" t="inlineStr">
@@ -901,47 +901,47 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-6,61; 2,72</t>
+          <t>-7,13; 2,28</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-7,25; 1,68</t>
+          <t>-7,58; 1,5</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>2,47; 12,74</t>
+          <t>2,24; 12,25</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-0,04; 10,73</t>
+          <t>-0,25; 10,67</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>-1,7; 9,31</t>
+          <t>-1,87; 9,86</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>6,09; 16,06</t>
+          <t>6,26; 16,02</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>-2,01; 5,05</t>
+          <t>-2,48; 4,93</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>-3,36; 4,21</t>
+          <t>-3,11; 3,87</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>5,7; 12,88</t>
+          <t>5,76; 13,04</t>
         </is>
       </c>
     </row>
@@ -1007,54 +1007,54 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-27,85; 14,0</t>
+          <t>-29,73; 11,68</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-30,59; 9,04</t>
+          <t>-31,67; 7,63</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>10,32; 66,39</t>
+          <t>9,14; 61,76</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-0,26; 40,19</t>
+          <t>-1,01; 40,28</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>-5,52; 35,05</t>
+          <t>-5,24; 37,74</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>19,31; 62,2</t>
+          <t>19,43; 60,81</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>-7,44; 21,63</t>
+          <t>-9,36; 20,85</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>-12,46; 18,34</t>
+          <t>-11,58; 16,57</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>21,0; 55,19</t>
+          <t>21,21; 55,99</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>10/50</t>
+          <t>10-50.000 hab</t>
         </is>
       </c>
       <c r="B12" s="3" t="inlineStr">
@@ -1117,47 +1117,47 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>1,31; 8,44</t>
+          <t>1,48; 8,76</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>-0,52; 6,57</t>
+          <t>-0,23; 6,65</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>3,06; 11,88</t>
+          <t>3,02; 11,71</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>0,55; 9,17</t>
+          <t>0,33; 9,29</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>-1,24; 7,52</t>
+          <t>-0,31; 8,12</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>6,66; 14,44</t>
+          <t>6,92; 14,55</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>2,3; 7,82</t>
+          <t>2,12; 7,66</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>0,71; 6,14</t>
+          <t>0,71; 6,28</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>6,2; 12,18</t>
+          <t>5,92; 11,94</t>
         </is>
       </c>
     </row>
@@ -1223,54 +1223,54 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>6,84; 59,04</t>
+          <t>8,3; 62,18</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>-3,14; 46,22</t>
+          <t>-1,6; 47,77</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>19,03; 85,26</t>
+          <t>16,73; 81,17</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>1,66; 36,25</t>
+          <t>0,58; 36,96</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>-4,51; 30,55</t>
+          <t>-1,19; 32,91</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>23,14; 59,8</t>
+          <t>23,85; 59,29</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>10,31; 38,79</t>
+          <t>9,63; 38,93</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>3,17; 31,17</t>
+          <t>3,37; 31,57</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>26,99; 61,93</t>
+          <t>26,92; 60,42</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>mas de 50</t>
+          <t>&gt;50.000hab</t>
         </is>
       </c>
       <c r="B16" s="3" t="inlineStr">
@@ -1333,47 +1333,47 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>-9,72; -1,93</t>
+          <t>-10,04; -1,68</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>-6,33; 2,13</t>
+          <t>-6,26; 2,07</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>0,46; 9,96</t>
+          <t>0,12; 9,75</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>-11,66; -1,61</t>
+          <t>-11,4; -1,82</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>-13,46; -3,65</t>
+          <t>-13,37; -3,98</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>-5,95; 26,05</t>
+          <t>-5,91; 25,58</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>-9,74; -3,07</t>
+          <t>-9,53; -2,91</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>-8,69; -1,73</t>
+          <t>-8,43; -1,74</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>-0,93; 19,56</t>
+          <t>-0,82; 20,12</t>
         </is>
       </c>
     </row>
@@ -1439,47 +1439,47 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>-46,22; -11,28</t>
+          <t>-46,78; -9,54</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>-29,68; 12,45</t>
+          <t>-29,2; 12,63</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>1,29; 56,49</t>
+          <t>0,26; 56,04</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>-30,52; -4,81</t>
+          <t>-30,37; -5,05</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>-35,87; -11,38</t>
+          <t>-35,37; -11,31</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>-16,8; 77,29</t>
+          <t>-16,44; 80,36</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>-33,53; -11,52</t>
+          <t>-33,08; -10,94</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>-29,39; -6,55</t>
+          <t>-29,24; -6,86</t>
         </is>
       </c>
       <c r="K19" s="2" t="inlineStr">
         <is>
-          <t>-3,25; 73,19</t>
+          <t>-2,88; 74,27</t>
         </is>
       </c>
     </row>
@@ -1549,47 +1549,47 @@
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>0,64; 7,65</t>
+          <t>0,37; 7,79</t>
         </is>
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>-2,57; 4,15</t>
+          <t>-2,68; 4,23</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>7,71; 15,07</t>
+          <t>7,72; 14,92</t>
         </is>
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>0,38; 8,54</t>
+          <t>0,57; 8,33</t>
         </is>
       </c>
       <c r="G21" s="2" t="inlineStr">
         <is>
-          <t>-4,6; 3,36</t>
+          <t>-4,38; 3,7</t>
         </is>
       </c>
       <c r="H21" s="2" t="inlineStr">
         <is>
-          <t>8,72; 16,61</t>
+          <t>8,76; 16,41</t>
         </is>
       </c>
       <c r="I21" s="2" t="inlineStr">
         <is>
-          <t>1,77; 7,19</t>
+          <t>1,59; 7,1</t>
         </is>
       </c>
       <c r="J21" s="2" t="inlineStr">
         <is>
-          <t>-2,41; 2,78</t>
+          <t>-2,39; 3,01</t>
         </is>
       </c>
       <c r="K21" s="2" t="inlineStr">
         <is>
-          <t>9,73; 15,0</t>
+          <t>9,58; 14,9</t>
         </is>
       </c>
     </row>
@@ -1655,47 +1655,47 @@
       </c>
       <c r="C23" s="2" t="inlineStr">
         <is>
-          <t>3,55; 48,13</t>
+          <t>1,8; 50,32</t>
         </is>
       </c>
       <c r="D23" s="2" t="inlineStr">
         <is>
-          <t>-13,77; 26,73</t>
+          <t>-14,05; 26,26</t>
         </is>
       </c>
       <c r="E23" s="2" t="inlineStr">
         <is>
-          <t>38,58; 97,96</t>
+          <t>40,75; 98,16</t>
         </is>
       </c>
       <c r="F23" s="2" t="inlineStr">
         <is>
-          <t>1,41; 32,97</t>
+          <t>2,08; 33,8</t>
         </is>
       </c>
       <c r="G23" s="2" t="inlineStr">
         <is>
-          <t>-15,84; 12,82</t>
+          <t>-15,01; 14,47</t>
         </is>
       </c>
       <c r="H23" s="2" t="inlineStr">
         <is>
-          <t>30,1; 66,44</t>
+          <t>29,9; 65,38</t>
         </is>
       </c>
       <c r="I23" s="2" t="inlineStr">
         <is>
-          <t>7,23; 33,51</t>
+          <t>6,81; 33,57</t>
         </is>
       </c>
       <c r="J23" s="2" t="inlineStr">
         <is>
-          <t>-10,07; 13,26</t>
+          <t>-10,21; 14,47</t>
         </is>
       </c>
       <c r="K23" s="2" t="inlineStr">
         <is>
-          <t>40,95; 71,48</t>
+          <t>40,06; 71,13</t>
         </is>
       </c>
     </row>
@@ -1765,12 +1765,12 @@
       </c>
       <c r="C25" s="2" t="inlineStr">
         <is>
-          <t>-1,27; 2,52</t>
+          <t>-1,17; 2,66</t>
         </is>
       </c>
       <c r="D25" s="2" t="inlineStr">
         <is>
-          <t>-1,53; 2,21</t>
+          <t>-1,54; 2,29</t>
         </is>
       </c>
       <c r="E25" s="2" t="inlineStr">
@@ -1780,32 +1780,32 @@
       </c>
       <c r="F25" s="2" t="inlineStr">
         <is>
-          <t>-0,01; 4,32</t>
+          <t>-0,19; 4,21</t>
         </is>
       </c>
       <c r="G25" s="2" t="inlineStr">
         <is>
-          <t>-2,64; 1,85</t>
+          <t>-2,52; 1,99</t>
         </is>
       </c>
       <c r="H25" s="2" t="inlineStr">
         <is>
-          <t>7,0; 16,26</t>
+          <t>7,17; 16,51</t>
         </is>
       </c>
       <c r="I25" s="2" t="inlineStr">
         <is>
-          <t>-0,08; 2,95</t>
+          <t>-0,02; 3,06</t>
         </is>
       </c>
       <c r="J25" s="2" t="inlineStr">
         <is>
-          <t>-1,48; 1,58</t>
+          <t>-1,34; 1,66</t>
         </is>
       </c>
       <c r="K25" s="2" t="inlineStr">
         <is>
-          <t>7,63; 13,12</t>
+          <t>7,52; 12,72</t>
         </is>
       </c>
     </row>
@@ -1871,47 +1871,47 @@
       </c>
       <c r="C27" s="2" t="inlineStr">
         <is>
-          <t>-6,6; 14,51</t>
+          <t>-6,22; 15,32</t>
         </is>
       </c>
       <c r="D27" s="2" t="inlineStr">
         <is>
-          <t>-8,07; 12,82</t>
+          <t>-8,14; 13,38</t>
         </is>
       </c>
       <c r="E27" s="2" t="inlineStr">
         <is>
-          <t>32,07; 59,59</t>
+          <t>32,63; 61,02</t>
         </is>
       </c>
       <c r="F27" s="2" t="inlineStr">
         <is>
-          <t>0,03; 15,7</t>
+          <t>-0,51; 14,98</t>
         </is>
       </c>
       <c r="G27" s="2" t="inlineStr">
         <is>
-          <t>-8,81; 6,47</t>
+          <t>-8,45; 7,15</t>
         </is>
       </c>
       <c r="H27" s="2" t="inlineStr">
         <is>
-          <t>23,18; 55,92</t>
+          <t>23,8; 56,72</t>
         </is>
       </c>
       <c r="I27" s="2" t="inlineStr">
         <is>
-          <t>-0,34; 12,69</t>
+          <t>-0,02; 13,25</t>
         </is>
       </c>
       <c r="J27" s="2" t="inlineStr">
         <is>
-          <t>-6,07; 6,94</t>
+          <t>-5,52; 7,24</t>
         </is>
       </c>
       <c r="K27" s="2" t="inlineStr">
         <is>
-          <t>31,38; 55,93</t>
+          <t>30,05; 54,39</t>
         </is>
       </c>
     </row>

--- a/data/trans_camb/P11_R-Habitat-trans_camb.xlsx
+++ b/data/trans_camb/P11_R-Habitat-trans_camb.xlsx
@@ -7,7 +7,7 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Transversal cambio" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Cambio" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -531,7 +531,7 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Población que el dolor dificultó su trabajo habitual las últimas 4 semanas</t>
+          <t>Población a la que el dolor le dificultó su trabajo habitual las últimas 4 semanas</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>
@@ -685,47 +685,47 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-17,56; 3,18</t>
+          <t>-17,75; 3,22</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>-8,09; 16,66</t>
+          <t>-8,27; 15,63</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>5,96; 31,97</t>
+          <t>6,86; 31,69</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>-12,58; 13,04</t>
+          <t>-11,75; 10,59</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>-16,26; 7,09</t>
+          <t>-16,25; 9,09</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>-4,55; 16,77</t>
+          <t>-5,04; 14,93</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>-12,01; 4,56</t>
+          <t>-12,64; 3,49</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>-8,4; 7,95</t>
+          <t>-9,11; 8,63</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>4,16; 19,83</t>
+          <t>4,49; 21,24</t>
         </is>
       </c>
     </row>
@@ -791,47 +791,47 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>-57,24; 16,59</t>
+          <t>-59,26; 18,87</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>-25,72; 90,74</t>
+          <t>-26,52; 82,76</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>15,49; 163,86</t>
+          <t>20,68; 175,4</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>-31,78; 48,02</t>
+          <t>-29,91; 35,57</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>-39,79; 24,65</t>
+          <t>-41,11; 31,0</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>-11,33; 59,5</t>
+          <t>-12,86; 53,8</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>-35,92; 17,44</t>
+          <t>-38,09; 12,93</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>-25,39; 31,27</t>
+          <t>-26,53; 34,26</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>11,6; 79,03</t>
+          <t>12,55; 85,13</t>
         </is>
       </c>
     </row>
@@ -901,47 +901,47 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-7,13; 2,28</t>
+          <t>-6,95; 2,4</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-7,58; 1,5</t>
+          <t>-7,8; 1,44</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>2,24; 12,25</t>
+          <t>2,62; 12,43</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-0,25; 10,67</t>
+          <t>-0,12; 10,64</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>-1,87; 9,86</t>
+          <t>-1,12; 9,46</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>6,26; 16,02</t>
+          <t>5,43; 15,86</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>-2,48; 4,93</t>
+          <t>-2,41; 5,04</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>-3,11; 3,87</t>
+          <t>-2,98; 4,44</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>5,76; 13,04</t>
+          <t>5,56; 12,72</t>
         </is>
       </c>
     </row>
@@ -1007,47 +1007,47 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-29,73; 11,68</t>
+          <t>-28,72; 12,37</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-31,67; 7,63</t>
+          <t>-33,24; 7,35</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>9,14; 61,76</t>
+          <t>11,3; 65,03</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-1,01; 40,28</t>
+          <t>-0,54; 40,51</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>-5,24; 37,74</t>
+          <t>-3,76; 35,89</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>19,43; 60,81</t>
+          <t>16,55; 60,71</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>-9,36; 20,85</t>
+          <t>-8,92; 21,22</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>-11,58; 16,57</t>
+          <t>-10,86; 18,65</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>21,21; 55,99</t>
+          <t>20,32; 54,58</t>
         </is>
       </c>
     </row>
@@ -1117,47 +1117,47 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>1,48; 8,76</t>
+          <t>1,59; 8,84</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>-0,23; 6,65</t>
+          <t>-0,67; 6,29</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>3,02; 11,71</t>
+          <t>3,48; 11,49</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>0,33; 9,29</t>
+          <t>0,5; 8,82</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>-0,31; 8,12</t>
+          <t>-0,78; 7,27</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>6,92; 14,55</t>
+          <t>6,81; 15,04</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>2,12; 7,66</t>
+          <t>2,25; 7,65</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>0,71; 6,28</t>
+          <t>0,53; 6,07</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>5,92; 11,94</t>
+          <t>6,09; 12,07</t>
         </is>
       </c>
     </row>
@@ -1223,47 +1223,47 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>8,3; 62,18</t>
+          <t>8,68; 63,2</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>-1,6; 47,77</t>
+          <t>-4,12; 45,07</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>16,73; 81,17</t>
+          <t>20,59; 81,99</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>0,58; 36,96</t>
+          <t>1,81; 35,99</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>-1,19; 32,91</t>
+          <t>-2,73; 29,51</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>23,85; 59,29</t>
+          <t>23,69; 62,57</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>9,63; 38,93</t>
+          <t>9,29; 37,98</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>3,37; 31,57</t>
+          <t>2,63; 30,88</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>26,92; 60,42</t>
+          <t>27,51; 61,39</t>
         </is>
       </c>
     </row>
@@ -1333,47 +1333,47 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>-10,04; -1,68</t>
+          <t>-10,28; -2,45</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>-6,26; 2,07</t>
+          <t>-6,2; 1,96</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>0,12; 9,75</t>
+          <t>0,42; 9,51</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>-11,4; -1,82</t>
+          <t>-11,87; -2,36</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>-13,37; -3,98</t>
+          <t>-13,44; -3,65</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>-5,91; 25,58</t>
+          <t>-5,39; 25,84</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>-9,53; -2,91</t>
+          <t>-9,51; -3,19</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>-8,43; -1,74</t>
+          <t>-8,68; -1,74</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>-0,82; 20,12</t>
+          <t>-0,45; 20,53</t>
         </is>
       </c>
     </row>
@@ -1439,47 +1439,47 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>-46,78; -9,54</t>
+          <t>-47,47; -13,59</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>-29,2; 12,63</t>
+          <t>-28,54; 11,67</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>0,26; 56,04</t>
+          <t>0,94; 55,82</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>-30,37; -5,05</t>
+          <t>-32,11; -6,92</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>-35,37; -11,31</t>
+          <t>-35,88; -11,12</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>-16,44; 80,36</t>
+          <t>-15,26; 79,07</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>-33,08; -10,94</t>
+          <t>-32,98; -12,26</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>-29,24; -6,86</t>
+          <t>-29,76; -6,92</t>
         </is>
       </c>
       <c r="K19" s="2" t="inlineStr">
         <is>
-          <t>-2,88; 74,27</t>
+          <t>-1,63; 78,72</t>
         </is>
       </c>
     </row>
@@ -1549,47 +1549,47 @@
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>0,37; 7,79</t>
+          <t>0,59; 7,72</t>
         </is>
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>-2,68; 4,23</t>
+          <t>-2,53; 4,12</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>7,72; 14,92</t>
+          <t>7,67; 15,3</t>
         </is>
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>0,57; 8,33</t>
+          <t>0,34; 8,22</t>
         </is>
       </c>
       <c r="G21" s="2" t="inlineStr">
         <is>
-          <t>-4,38; 3,7</t>
+          <t>-4,48; 3,49</t>
         </is>
       </c>
       <c r="H21" s="2" t="inlineStr">
         <is>
-          <t>8,76; 16,41</t>
+          <t>8,78; 16,62</t>
         </is>
       </c>
       <c r="I21" s="2" t="inlineStr">
         <is>
-          <t>1,59; 7,1</t>
+          <t>1,85; 7,1</t>
         </is>
       </c>
       <c r="J21" s="2" t="inlineStr">
         <is>
-          <t>-2,39; 3,01</t>
+          <t>-2,24; 2,86</t>
         </is>
       </c>
       <c r="K21" s="2" t="inlineStr">
         <is>
-          <t>9,58; 14,9</t>
+          <t>9,29; 14,95</t>
         </is>
       </c>
     </row>
@@ -1655,47 +1655,47 @@
       </c>
       <c r="C23" s="2" t="inlineStr">
         <is>
-          <t>1,8; 50,32</t>
+          <t>3,04; 49,87</t>
         </is>
       </c>
       <c r="D23" s="2" t="inlineStr">
         <is>
-          <t>-14,05; 26,26</t>
+          <t>-13,59; 27,7</t>
         </is>
       </c>
       <c r="E23" s="2" t="inlineStr">
         <is>
-          <t>40,75; 98,16</t>
+          <t>40,98; 100,19</t>
         </is>
       </c>
       <c r="F23" s="2" t="inlineStr">
         <is>
-          <t>2,08; 33,8</t>
+          <t>1,23; 32,64</t>
         </is>
       </c>
       <c r="G23" s="2" t="inlineStr">
         <is>
-          <t>-15,01; 14,47</t>
+          <t>-15,5; 13,91</t>
         </is>
       </c>
       <c r="H23" s="2" t="inlineStr">
         <is>
-          <t>29,9; 65,38</t>
+          <t>30,01; 65,94</t>
         </is>
       </c>
       <c r="I23" s="2" t="inlineStr">
         <is>
-          <t>6,81; 33,57</t>
+          <t>7,66; 33,82</t>
         </is>
       </c>
       <c r="J23" s="2" t="inlineStr">
         <is>
-          <t>-10,21; 14,47</t>
+          <t>-9,38; 13,74</t>
         </is>
       </c>
       <c r="K23" s="2" t="inlineStr">
         <is>
-          <t>40,06; 71,13</t>
+          <t>38,67; 71,55</t>
         </is>
       </c>
     </row>
@@ -1765,47 +1765,47 @@
       </c>
       <c r="C25" s="2" t="inlineStr">
         <is>
-          <t>-1,17; 2,66</t>
+          <t>-1,23; 2,61</t>
         </is>
       </c>
       <c r="D25" s="2" t="inlineStr">
         <is>
-          <t>-1,54; 2,29</t>
+          <t>-1,61; 2,23</t>
         </is>
       </c>
       <c r="E25" s="2" t="inlineStr">
         <is>
-          <t>6,11; 10,35</t>
+          <t>5,9; 10,35</t>
         </is>
       </c>
       <c r="F25" s="2" t="inlineStr">
         <is>
-          <t>-0,19; 4,21</t>
+          <t>-0,24; 4,36</t>
         </is>
       </c>
       <c r="G25" s="2" t="inlineStr">
         <is>
-          <t>-2,52; 1,99</t>
+          <t>-2,73; 1,7</t>
         </is>
       </c>
       <c r="H25" s="2" t="inlineStr">
         <is>
-          <t>7,17; 16,51</t>
+          <t>7,12; 15,79</t>
         </is>
       </c>
       <c r="I25" s="2" t="inlineStr">
         <is>
-          <t>-0,02; 3,06</t>
+          <t>-0,13; 2,85</t>
         </is>
       </c>
       <c r="J25" s="2" t="inlineStr">
         <is>
-          <t>-1,34; 1,66</t>
+          <t>-1,48; 1,55</t>
         </is>
       </c>
       <c r="K25" s="2" t="inlineStr">
         <is>
-          <t>7,52; 12,72</t>
+          <t>7,53; 12,92</t>
         </is>
       </c>
     </row>
@@ -1871,47 +1871,47 @@
       </c>
       <c r="C27" s="2" t="inlineStr">
         <is>
-          <t>-6,22; 15,32</t>
+          <t>-6,4; 15,18</t>
         </is>
       </c>
       <c r="D27" s="2" t="inlineStr">
         <is>
-          <t>-8,14; 13,38</t>
+          <t>-8,49; 12,95</t>
         </is>
       </c>
       <c r="E27" s="2" t="inlineStr">
         <is>
-          <t>32,63; 61,02</t>
+          <t>31,33; 60,11</t>
         </is>
       </c>
       <c r="F27" s="2" t="inlineStr">
         <is>
-          <t>-0,51; 14,98</t>
+          <t>-0,81; 15,43</t>
         </is>
       </c>
       <c r="G27" s="2" t="inlineStr">
         <is>
-          <t>-8,45; 7,15</t>
+          <t>-9,02; 6,03</t>
         </is>
       </c>
       <c r="H27" s="2" t="inlineStr">
         <is>
-          <t>23,8; 56,72</t>
+          <t>23,74; 53,59</t>
         </is>
       </c>
       <c r="I27" s="2" t="inlineStr">
         <is>
-          <t>-0,02; 13,25</t>
+          <t>-0,57; 12,3</t>
         </is>
       </c>
       <c r="J27" s="2" t="inlineStr">
         <is>
-          <t>-5,52; 7,24</t>
+          <t>-5,99; 6,77</t>
         </is>
       </c>
       <c r="K27" s="2" t="inlineStr">
         <is>
-          <t>30,05; 54,39</t>
+          <t>30,96; 55,75</t>
         </is>
       </c>
     </row>

--- a/data/trans_camb/P11_R-Habitat-trans_camb.xlsx
+++ b/data/trans_camb/P11_R-Habitat-trans_camb.xlsx
@@ -504,7 +504,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K28"/>
+  <dimension ref="A1:K24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -622,7 +622,7 @@
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>&lt;2.000hab</t>
+          <t>&lt;10.000 hab</t>
         </is>
       </c>
       <c r="B4" s="3" t="inlineStr">
@@ -632,47 +632,47 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>-7,65</t>
+          <t>-3,24</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>4,02</t>
+          <t>-1,64</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>19,01</t>
+          <t>8,74</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>-0,63</t>
+          <t>4,2</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>-4,4</t>
+          <t>2,65</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>5,3</t>
+          <t>10,29</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>-4,16</t>
+          <t>0,48</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>-0,14</t>
+          <t>0,51</t>
         </is>
       </c>
       <c r="K4" s="2" t="inlineStr">
         <is>
-          <t>11,97</t>
+          <t>9,68</t>
         </is>
       </c>
     </row>
@@ -685,47 +685,47 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-17,75; 3,22</t>
+          <t>-7,62; 0,89</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>-8,27; 15,63</t>
+          <t>-5,99; 2,87</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>6,86; 31,69</t>
+          <t>4,0; 13,51</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>-11,75; 10,59</t>
+          <t>-0,95; 8,92</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>-16,25; 9,09</t>
+          <t>-2,21; 7,8</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>-5,04; 14,93</t>
+          <t>5,56; 14,27</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>-12,64; 3,49</t>
+          <t>-2,94; 3,54</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>-9,11; 8,63</t>
+          <t>-2,93; 3,77</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>4,49; 21,24</t>
+          <t>6,3; 13,19</t>
         </is>
       </c>
     </row>
@@ -738,47 +738,47 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>-30,83%</t>
+          <t>-14,66%</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>16,21%</t>
+          <t>-7,42%</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>76,57%</t>
+          <t>39,5%</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>-1,81%</t>
+          <t>14,06%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>-12,68%</t>
+          <t>8,88%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>15,28%</t>
+          <t>34,49%</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>-14,01%</t>
+          <t>1,84%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>-0,46%</t>
+          <t>1,95%</t>
         </is>
       </c>
       <c r="K6" s="2" t="inlineStr">
         <is>
-          <t>40,32%</t>
+          <t>37,26%</t>
         </is>
       </c>
     </row>
@@ -791,54 +791,54 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>-59,26; 18,87</t>
+          <t>-31,17; 4,9</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>-26,52; 82,76</t>
+          <t>-25,43; 14,29</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>20,68; 175,4</t>
+          <t>15,63; 67,61</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>-29,91; 35,57</t>
+          <t>-2,98; 32,2</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>-41,11; 31,0</t>
+          <t>-6,96; 28,61</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>-12,86; 53,8</t>
+          <t>16,94; 51,6</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>-38,09; 12,93</t>
+          <t>-10,67; 14,57</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>-26,53; 34,26</t>
+          <t>-10,77; 15,58</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>12,55; 85,13</t>
+          <t>22,69; 54,16</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>2-10.000 hab</t>
+          <t>10-50.000 hab</t>
         </is>
       </c>
       <c r="B8" s="3" t="inlineStr">
@@ -848,47 +848,47 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>-2,37</t>
+          <t>5,13</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>-2,83</t>
+          <t>3,09</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>7,39</t>
+          <t>3,67</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>5,14</t>
+          <t>4,78</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>4,05</t>
+          <t>3,61</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>11,02</t>
+          <t>11,26</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>1,39</t>
+          <t>4,98</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>0,61</t>
+          <t>3,4</t>
         </is>
       </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
-          <t>9,43</t>
+          <t>6,43</t>
         </is>
       </c>
     </row>
@@ -901,47 +901,47 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-6,95; 2,4</t>
+          <t>1,59; 8,84</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-7,8; 1,44</t>
+          <t>-0,67; 6,29</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>2,62; 12,43</t>
+          <t>-5,88; 10,15</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-0,12; 10,64</t>
+          <t>0,5; 8,82</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>-1,12; 9,46</t>
+          <t>-0,78; 7,27</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>5,43; 15,86</t>
+          <t>7,31; 15,6</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>-2,41; 5,04</t>
+          <t>2,25; 7,65</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>-2,98; 4,44</t>
+          <t>0,53; 6,07</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>5,56; 12,72</t>
+          <t>-2,63; 10,87</t>
         </is>
       </c>
     </row>
@@ -954,47 +954,47 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>-10,99%</t>
+          <t>32,9%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>-13,12%</t>
+          <t>19,84%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>34,25%</t>
+          <t>23,56%</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>17,79%</t>
+          <t>17,9%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>14,0%</t>
+          <t>13,52%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>38,14%</t>
+          <t>42,19%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>5,51%</t>
+          <t>23,53%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>2,43%</t>
+          <t>16,06%</t>
         </is>
       </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
-          <t>37,36%</t>
+          <t>30,39%</t>
         </is>
       </c>
     </row>
@@ -1007,54 +1007,54 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-28,72; 12,37</t>
+          <t>8,68; 63,2</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-33,24; 7,35</t>
+          <t>-4,12; 45,07</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>11,3; 65,03</t>
+          <t>-33,7; 67,84</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-0,54; 40,51</t>
+          <t>1,81; 35,99</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>-3,76; 35,89</t>
+          <t>-2,73; 29,51</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>16,55; 60,71</t>
+          <t>25,22; 64,19</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>-8,92; 21,22</t>
+          <t>9,29; 37,98</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>-10,86; 18,65</t>
+          <t>2,63; 30,88</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>20,32; 54,58</t>
+          <t>-11,36; 53,01</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>10-50.000 hab</t>
+          <t>&gt;50.000 hab</t>
         </is>
       </c>
       <c r="B12" s="3" t="inlineStr">
@@ -1064,47 +1064,47 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>5,13</t>
+          <t>-5,97</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>3,09</t>
+          <t>-2,0</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>7,68</t>
+          <t>4,64</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>4,78</t>
+          <t>-6,77</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>3,61</t>
+          <t>-8,52</t>
         </is>
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>10,75</t>
+          <t>10,23</t>
         </is>
       </c>
       <c r="I12" s="2" t="inlineStr">
         <is>
-          <t>4,98</t>
+          <t>-6,29</t>
         </is>
       </c>
       <c r="J12" s="2" t="inlineStr">
         <is>
-          <t>3,4</t>
+          <t>-5,21</t>
         </is>
       </c>
       <c r="K12" s="2" t="inlineStr">
         <is>
-          <t>9,27</t>
+          <t>8,89</t>
         </is>
       </c>
     </row>
@@ -1117,47 +1117,47 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>1,59; 8,84</t>
+          <t>-10,28; -2,45</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>-0,67; 6,29</t>
+          <t>-6,2; 1,96</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>3,48; 11,49</t>
+          <t>0,18; 9,21</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>0,5; 8,82</t>
+          <t>-11,87; -2,36</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>-0,78; 7,27</t>
+          <t>-13,44; -3,65</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>6,81; 15,04</t>
+          <t>-6,59; 37,6</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>2,25; 7,65</t>
+          <t>-9,51; -3,19</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>0,53; 6,07</t>
+          <t>-8,68; -1,74</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>6,09; 12,07</t>
+          <t>-1,01; 30,13</t>
         </is>
       </c>
     </row>
@@ -1170,47 +1170,47 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>32,9%</t>
+          <t>-30,92%</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>19,84%</t>
+          <t>-10,36%</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>49,25%</t>
+          <t>24,0%</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>17,9%</t>
+          <t>-19,3%</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>13,52%</t>
+          <t>-24,3%</t>
         </is>
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>40,29%</t>
+          <t>29,18%</t>
         </is>
       </c>
       <c r="I14" s="2" t="inlineStr">
         <is>
-          <t>23,53%</t>
+          <t>-23,1%</t>
         </is>
       </c>
       <c r="J14" s="2" t="inlineStr">
         <is>
-          <t>16,06%</t>
+          <t>-19,15%</t>
         </is>
       </c>
       <c r="K14" s="2" t="inlineStr">
         <is>
-          <t>43,81%</t>
+          <t>32,66%</t>
         </is>
       </c>
     </row>
@@ -1223,54 +1223,54 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>8,68; 63,2</t>
+          <t>-47,47; -13,59</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>-4,12; 45,07</t>
+          <t>-28,54; 11,67</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>20,59; 81,99</t>
+          <t>-0,52; 53,58</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>1,81; 35,99</t>
+          <t>-32,11; -6,92</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>-2,73; 29,51</t>
+          <t>-35,88; -11,12</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>23,69; 62,57</t>
+          <t>-18,41; 115,36</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>9,29; 37,98</t>
+          <t>-32,98; -12,26</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>2,63; 30,88</t>
+          <t>-29,76; -6,92</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>27,51; 61,39</t>
+          <t>-3,66; 119,95</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>&gt;50.000hab</t>
+          <t>Capitales</t>
         </is>
       </c>
       <c r="B16" s="3" t="inlineStr">
@@ -1280,47 +1280,47 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>-5,97</t>
+          <t>4,19</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>-2,0</t>
+          <t>0,94</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>5,06</t>
+          <t>11,57</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>-6,77</t>
+          <t>4,4</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
         <is>
-          <t>-8,52</t>
+          <t>-0,59</t>
         </is>
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>4,45</t>
+          <t>10,62</t>
         </is>
       </c>
       <c r="I16" s="2" t="inlineStr">
         <is>
-          <t>-6,29</t>
+          <t>4,33</t>
         </is>
       </c>
       <c r="J16" s="2" t="inlineStr">
         <is>
-          <t>-5,21</t>
+          <t>0,16</t>
         </is>
       </c>
       <c r="K16" s="2" t="inlineStr">
         <is>
-          <t>5,41</t>
+          <t>11,23</t>
         </is>
       </c>
     </row>
@@ -1333,47 +1333,47 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>-10,28; -2,45</t>
+          <t>0,59; 7,72</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>-6,2; 1,96</t>
+          <t>-2,53; 4,12</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>0,42; 9,51</t>
+          <t>7,9; 15,73</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>-11,87; -2,36</t>
+          <t>0,34; 8,22</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>-13,44; -3,65</t>
+          <t>-4,48; 3,49</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>-5,39; 25,84</t>
+          <t>2,4; 15,32</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>-9,51; -3,19</t>
+          <t>1,85; 7,1</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>-8,68; -1,74</t>
+          <t>-2,24; 2,86</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>-0,45; 20,53</t>
+          <t>7,1; 14,04</t>
         </is>
       </c>
     </row>
@@ -1386,47 +1386,47 @@
       </c>
       <c r="C18" s="2" t="inlineStr">
         <is>
-          <t>-30,92%</t>
+          <t>24,52%</t>
         </is>
       </c>
       <c r="D18" s="2" t="inlineStr">
         <is>
-          <t>-10,36%</t>
+          <t>5,5%</t>
         </is>
       </c>
       <c r="E18" s="2" t="inlineStr">
         <is>
-          <t>26,2%</t>
+          <t>67,7%</t>
         </is>
       </c>
       <c r="F18" s="2" t="inlineStr">
         <is>
-          <t>-19,3%</t>
+          <t>16,15%</t>
         </is>
       </c>
       <c r="G18" s="2" t="inlineStr">
         <is>
-          <t>-24,3%</t>
+          <t>-2,15%</t>
         </is>
       </c>
       <c r="H18" s="2" t="inlineStr">
         <is>
-          <t>12,68%</t>
+          <t>38,96%</t>
         </is>
       </c>
       <c r="I18" s="2" t="inlineStr">
         <is>
-          <t>-23,1%</t>
+          <t>19,32%</t>
         </is>
       </c>
       <c r="J18" s="2" t="inlineStr">
         <is>
-          <t>-19,15%</t>
+          <t>0,72%</t>
         </is>
       </c>
       <c r="K18" s="2" t="inlineStr">
         <is>
-          <t>19,87%</t>
+          <t>50,07%</t>
         </is>
       </c>
     </row>
@@ -1439,54 +1439,54 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>-47,47; -13,59</t>
+          <t>3,04; 49,87</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>-28,54; 11,67</t>
+          <t>-13,59; 27,7</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>0,94; 55,82</t>
+          <t>42,08; 103,11</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>-32,11; -6,92</t>
+          <t>1,23; 32,64</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>-35,88; -11,12</t>
+          <t>-15,5; 13,91</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>-15,26; 79,07</t>
+          <t>11,13; 59,85</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>-32,98; -12,26</t>
+          <t>7,66; 33,82</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>-29,76; -6,92</t>
+          <t>-9,38; 13,74</t>
         </is>
       </c>
       <c r="K19" s="2" t="inlineStr">
         <is>
-          <t>-1,63; 78,72</t>
+          <t>31,15; 67,39</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="inlineStr">
         <is>
-          <t>Capitales</t>
+          <t>Total</t>
         </is>
       </c>
       <c r="B20" s="3" t="inlineStr">
@@ -1496,47 +1496,47 @@
       </c>
       <c r="C20" s="2" t="inlineStr">
         <is>
-          <t>4,19</t>
+          <t>0,69</t>
         </is>
       </c>
       <c r="D20" s="2" t="inlineStr">
         <is>
-          <t>0,94</t>
+          <t>0,38</t>
         </is>
       </c>
       <c r="E20" s="2" t="inlineStr">
         <is>
-          <t>11,3</t>
+          <t>6,69</t>
         </is>
       </c>
       <c r="F20" s="2" t="inlineStr">
         <is>
-          <t>4,4</t>
+          <t>2,13</t>
         </is>
       </c>
       <c r="G20" s="2" t="inlineStr">
         <is>
-          <t>-0,59</t>
+          <t>-0,39</t>
         </is>
       </c>
       <c r="H20" s="2" t="inlineStr">
         <is>
-          <t>12,54</t>
+          <t>11,0</t>
         </is>
       </c>
       <c r="I20" s="2" t="inlineStr">
         <is>
-          <t>4,33</t>
+          <t>1,46</t>
         </is>
       </c>
       <c r="J20" s="2" t="inlineStr">
         <is>
-          <t>0,16</t>
+          <t>0,02</t>
         </is>
       </c>
       <c r="K20" s="2" t="inlineStr">
         <is>
-          <t>12,16</t>
+          <t>8,98</t>
         </is>
       </c>
     </row>
@@ -1549,47 +1549,47 @@
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>0,59; 7,72</t>
+          <t>-1,23; 2,61</t>
         </is>
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>-2,53; 4,12</t>
+          <t>-1,61; 2,23</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>7,67; 15,3</t>
+          <t>1,25; 9,47</t>
         </is>
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>0,34; 8,22</t>
+          <t>-0,24; 4,36</t>
         </is>
       </c>
       <c r="G21" s="2" t="inlineStr">
         <is>
-          <t>-4,48; 3,49</t>
+          <t>-2,73; 1,7</t>
         </is>
       </c>
       <c r="H21" s="2" t="inlineStr">
         <is>
-          <t>8,78; 16,62</t>
+          <t>6,47; 21,66</t>
         </is>
       </c>
       <c r="I21" s="2" t="inlineStr">
         <is>
-          <t>1,85; 7,1</t>
+          <t>-0,13; 2,85</t>
         </is>
       </c>
       <c r="J21" s="2" t="inlineStr">
         <is>
-          <t>-2,24; 2,86</t>
+          <t>-1,48; 1,55</t>
         </is>
       </c>
       <c r="K21" s="2" t="inlineStr">
         <is>
-          <t>9,29; 14,95</t>
+          <t>5,53; 15,09</t>
         </is>
       </c>
     </row>
@@ -1602,47 +1602,47 @@
       </c>
       <c r="C22" s="2" t="inlineStr">
         <is>
-          <t>24,52%</t>
+          <t>3,8%</t>
         </is>
       </c>
       <c r="D22" s="2" t="inlineStr">
         <is>
-          <t>5,5%</t>
+          <t>2,08%</t>
         </is>
       </c>
       <c r="E22" s="2" t="inlineStr">
         <is>
-          <t>66,07%</t>
+          <t>36,81%</t>
         </is>
       </c>
       <c r="F22" s="2" t="inlineStr">
         <is>
-          <t>16,15%</t>
+          <t>7,3%</t>
         </is>
       </c>
       <c r="G22" s="2" t="inlineStr">
         <is>
-          <t>-2,15%</t>
+          <t>-1,33%</t>
         </is>
       </c>
       <c r="H22" s="2" t="inlineStr">
         <is>
-          <t>46,02%</t>
+          <t>37,68%</t>
         </is>
       </c>
       <c r="I22" s="2" t="inlineStr">
         <is>
-          <t>19,32%</t>
+          <t>6,12%</t>
         </is>
       </c>
       <c r="J22" s="2" t="inlineStr">
         <is>
-          <t>0,72%</t>
+          <t>0,1%</t>
         </is>
       </c>
       <c r="K22" s="2" t="inlineStr">
         <is>
-          <t>54,25%</t>
+          <t>37,77%</t>
         </is>
       </c>
     </row>
@@ -1655,275 +1655,59 @@
       </c>
       <c r="C23" s="2" t="inlineStr">
         <is>
-          <t>3,04; 49,87</t>
+          <t>-6,4; 15,18</t>
         </is>
       </c>
       <c r="D23" s="2" t="inlineStr">
         <is>
-          <t>-13,59; 27,7</t>
+          <t>-8,49; 12,95</t>
         </is>
       </c>
       <c r="E23" s="2" t="inlineStr">
         <is>
-          <t>40,98; 100,19</t>
+          <t>7,16; 53,44</t>
         </is>
       </c>
       <c r="F23" s="2" t="inlineStr">
         <is>
-          <t>1,23; 32,64</t>
+          <t>-0,81; 15,43</t>
         </is>
       </c>
       <c r="G23" s="2" t="inlineStr">
         <is>
-          <t>-15,5; 13,91</t>
+          <t>-9,02; 6,03</t>
         </is>
       </c>
       <c r="H23" s="2" t="inlineStr">
         <is>
-          <t>30,01; 65,94</t>
+          <t>21,79; 75,42</t>
         </is>
       </c>
       <c r="I23" s="2" t="inlineStr">
         <is>
-          <t>7,66; 33,82</t>
+          <t>-0,57; 12,3</t>
         </is>
       </c>
       <c r="J23" s="2" t="inlineStr">
         <is>
-          <t>-9,38; 13,74</t>
+          <t>-5,99; 6,77</t>
         </is>
       </c>
       <c r="K23" s="2" t="inlineStr">
         <is>
-          <t>38,67; 71,55</t>
+          <t>22,54; 63,98</t>
         </is>
       </c>
     </row>
     <row r="24">
-      <c r="A24" s="1" t="inlineStr">
-        <is>
-          <t>Total</t>
-        </is>
-      </c>
-      <c r="B24" s="3" t="inlineStr">
-        <is>
-          <t>Cambio absoluto (puntos porcentuales)</t>
-        </is>
-      </c>
-      <c r="C24" s="2" t="inlineStr">
-        <is>
-          <t>0,69</t>
-        </is>
-      </c>
-      <c r="D24" s="2" t="inlineStr">
-        <is>
-          <t>0,38</t>
-        </is>
-      </c>
-      <c r="E24" s="2" t="inlineStr">
-        <is>
-          <t>8,34</t>
-        </is>
-      </c>
-      <c r="F24" s="2" t="inlineStr">
-        <is>
-          <t>2,13</t>
-        </is>
-      </c>
-      <c r="G24" s="2" t="inlineStr">
-        <is>
-          <t>-0,39</t>
-        </is>
-      </c>
-      <c r="H24" s="2" t="inlineStr">
-        <is>
-          <t>9,9</t>
-        </is>
-      </c>
-      <c r="I24" s="2" t="inlineStr">
-        <is>
-          <t>1,46</t>
-        </is>
-      </c>
-      <c r="J24" s="2" t="inlineStr">
-        <is>
-          <t>0,02</t>
-        </is>
-      </c>
-      <c r="K24" s="2" t="inlineStr">
-        <is>
-          <t>9,4</t>
-        </is>
-      </c>
-    </row>
-    <row r="25">
-      <c r="A25" s="1" t="n"/>
-      <c r="B25" s="3" t="inlineStr">
-        <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C25" s="2" t="inlineStr">
-        <is>
-          <t>-1,23; 2,61</t>
-        </is>
-      </c>
-      <c r="D25" s="2" t="inlineStr">
-        <is>
-          <t>-1,61; 2,23</t>
-        </is>
-      </c>
-      <c r="E25" s="2" t="inlineStr">
-        <is>
-          <t>5,9; 10,35</t>
-        </is>
-      </c>
-      <c r="F25" s="2" t="inlineStr">
-        <is>
-          <t>-0,24; 4,36</t>
-        </is>
-      </c>
-      <c r="G25" s="2" t="inlineStr">
-        <is>
-          <t>-2,73; 1,7</t>
-        </is>
-      </c>
-      <c r="H25" s="2" t="inlineStr">
-        <is>
-          <t>7,12; 15,79</t>
-        </is>
-      </c>
-      <c r="I25" s="2" t="inlineStr">
-        <is>
-          <t>-0,13; 2,85</t>
-        </is>
-      </c>
-      <c r="J25" s="2" t="inlineStr">
-        <is>
-          <t>-1,48; 1,55</t>
-        </is>
-      </c>
-      <c r="K25" s="2" t="inlineStr">
-        <is>
-          <t>7,53; 12,92</t>
-        </is>
-      </c>
-    </row>
-    <row r="26">
-      <c r="A26" s="1" t="n"/>
-      <c r="B26" s="3" t="inlineStr">
-        <is>
-          <t>Cambio relativo (%)</t>
-        </is>
-      </c>
-      <c r="C26" s="2" t="inlineStr">
-        <is>
-          <t>3,8%</t>
-        </is>
-      </c>
-      <c r="D26" s="2" t="inlineStr">
-        <is>
-          <t>2,08%</t>
-        </is>
-      </c>
-      <c r="E26" s="2" t="inlineStr">
-        <is>
-          <t>45,87%</t>
-        </is>
-      </c>
-      <c r="F26" s="2" t="inlineStr">
-        <is>
-          <t>7,3%</t>
-        </is>
-      </c>
-      <c r="G26" s="2" t="inlineStr">
-        <is>
-          <t>-1,33%</t>
-        </is>
-      </c>
-      <c r="H26" s="2" t="inlineStr">
-        <is>
-          <t>33,91%</t>
-        </is>
-      </c>
-      <c r="I26" s="2" t="inlineStr">
-        <is>
-          <t>6,12%</t>
-        </is>
-      </c>
-      <c r="J26" s="2" t="inlineStr">
-        <is>
-          <t>0,1%</t>
-        </is>
-      </c>
-      <c r="K26" s="2" t="inlineStr">
-        <is>
-          <t>39,55%</t>
-        </is>
-      </c>
-    </row>
-    <row r="27">
-      <c r="A27" s="1" t="n"/>
-      <c r="B27" s="3" t="inlineStr">
-        <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C27" s="2" t="inlineStr">
-        <is>
-          <t>-6,4; 15,18</t>
-        </is>
-      </c>
-      <c r="D27" s="2" t="inlineStr">
-        <is>
-          <t>-8,49; 12,95</t>
-        </is>
-      </c>
-      <c r="E27" s="2" t="inlineStr">
-        <is>
-          <t>31,33; 60,11</t>
-        </is>
-      </c>
-      <c r="F27" s="2" t="inlineStr">
-        <is>
-          <t>-0,81; 15,43</t>
-        </is>
-      </c>
-      <c r="G27" s="2" t="inlineStr">
-        <is>
-          <t>-9,02; 6,03</t>
-        </is>
-      </c>
-      <c r="H27" s="2" t="inlineStr">
-        <is>
-          <t>23,74; 53,59</t>
-        </is>
-      </c>
-      <c r="I27" s="2" t="inlineStr">
-        <is>
-          <t>-0,57; 12,3</t>
-        </is>
-      </c>
-      <c r="J27" s="2" t="inlineStr">
-        <is>
-          <t>-5,99; 6,77</t>
-        </is>
-      </c>
-      <c r="K27" s="2" t="inlineStr">
-        <is>
-          <t>30,96; 55,75</t>
-        </is>
-      </c>
-    </row>
-    <row r="28">
-      <c r="A28" t="inlineStr">
+      <c r="A24" t="inlineStr">
         <is>
           <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
         </is>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="10">
+  <mergeCells count="9">
     <mergeCell ref="A4:A7"/>
     <mergeCell ref="C1:E1"/>
     <mergeCell ref="A8:A11"/>
@@ -1932,7 +1716,6 @@
     <mergeCell ref="I1:K1"/>
     <mergeCell ref="A20:A23"/>
     <mergeCell ref="A1:B2"/>
-    <mergeCell ref="A24:A27"/>
     <mergeCell ref="A16:A19"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/data/trans_camb/P11_R-Habitat-trans_camb.xlsx
+++ b/data/trans_camb/P11_R-Habitat-trans_camb.xlsx
@@ -685,47 +685,47 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-7,62; 0,89</t>
+          <t>-7,1; 1,28</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>-5,99; 2,87</t>
+          <t>-5,87; 2,85</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>4,0; 13,51</t>
+          <t>4,18; 13,91</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>-0,95; 8,92</t>
+          <t>-0,94; 9,58</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>-2,21; 7,8</t>
+          <t>-2,66; 7,51</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>5,56; 14,27</t>
+          <t>5,74; 14,57</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>-2,94; 3,54</t>
+          <t>-2,89; 3,78</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>-2,93; 3,77</t>
+          <t>-2,94; 3,94</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>6,3; 13,19</t>
+          <t>6,22; 12,9</t>
         </is>
       </c>
     </row>
@@ -791,47 +791,47 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>-31,17; 4,9</t>
+          <t>-29,39; 6,63</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>-25,43; 14,29</t>
+          <t>-24,08; 14,51</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>15,63; 67,61</t>
+          <t>16,93; 69,62</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>-2,98; 32,2</t>
+          <t>-3,76; 34,81</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>-6,96; 28,61</t>
+          <t>-8,22; 27,47</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>16,94; 51,6</t>
+          <t>17,0; 52,5</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>-10,67; 14,57</t>
+          <t>-10,42; 15,36</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>-10,77; 15,58</t>
+          <t>-10,77; 16,19</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>22,69; 54,16</t>
+          <t>22,19; 52,82</t>
         </is>
       </c>
     </row>
@@ -901,47 +901,47 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>1,59; 8,84</t>
+          <t>1,38; 8,67</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-0,67; 6,29</t>
+          <t>-0,3; 6,63</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-5,88; 10,15</t>
+          <t>-5,91; 9,55</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>0,5; 8,82</t>
+          <t>0,8; 8,96</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>-0,78; 7,27</t>
+          <t>-0,62; 7,92</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>7,31; 15,6</t>
+          <t>7,16; 15,02</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>2,25; 7,65</t>
+          <t>2,28; 7,68</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>0,53; 6,07</t>
+          <t>0,5; 5,85</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>-2,63; 10,87</t>
+          <t>-3,02; 11,09</t>
         </is>
       </c>
     </row>
@@ -1007,47 +1007,47 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>8,68; 63,2</t>
+          <t>9,1; 62,65</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-4,12; 45,07</t>
+          <t>-1,85; 48,47</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-33,7; 67,84</t>
+          <t>-33,77; 64,15</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>1,81; 35,99</t>
+          <t>2,79; 36,85</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>-2,73; 29,51</t>
+          <t>-2,1; 32,15</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>25,22; 64,19</t>
+          <t>25,23; 62,61</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>9,29; 37,98</t>
+          <t>10,25; 39,09</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>2,63; 30,88</t>
+          <t>2,2; 29,04</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>-11,36; 53,01</t>
+          <t>-13,3; 54,28</t>
         </is>
       </c>
     </row>
@@ -1117,47 +1117,47 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>-10,28; -2,45</t>
+          <t>-9,91; -2,0</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>-6,2; 1,96</t>
+          <t>-6,2; 2,14</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>0,18; 9,21</t>
+          <t>0,15; 9,42</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>-11,87; -2,36</t>
+          <t>-12,07; -2,3</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>-13,44; -3,65</t>
+          <t>-13,13; -3,16</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>-6,59; 37,6</t>
+          <t>-7,23; 36,57</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>-9,51; -3,19</t>
+          <t>-9,53; -3,02</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>-8,68; -1,74</t>
+          <t>-8,62; -2,23</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>-1,01; 30,13</t>
+          <t>-1,11; 30,85</t>
         </is>
       </c>
     </row>
@@ -1223,47 +1223,47 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>-47,47; -13,59</t>
+          <t>-46,57; -11,48</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>-28,54; 11,67</t>
+          <t>-28,51; 12,25</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>-0,52; 53,58</t>
+          <t>0,63; 54,54</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>-32,11; -6,92</t>
+          <t>-32,21; -7,18</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>-35,88; -11,12</t>
+          <t>-35,5; -9,52</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>-18,41; 115,36</t>
+          <t>-19,88; 108,98</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>-32,98; -12,26</t>
+          <t>-33,47; -11,78</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>-29,76; -6,92</t>
+          <t>-29,78; -8,72</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>-3,66; 119,95</t>
+          <t>-3,94; 119,59</t>
         </is>
       </c>
     </row>
@@ -1333,47 +1333,47 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>0,59; 7,72</t>
+          <t>0,33; 7,72</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>-2,53; 4,12</t>
+          <t>-2,45; 4,52</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>7,9; 15,73</t>
+          <t>7,73; 15,27</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>0,34; 8,22</t>
+          <t>0,62; 8,8</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>-4,48; 3,49</t>
+          <t>-4,83; 3,78</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>2,4; 15,32</t>
+          <t>2,95; 15,1</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>1,85; 7,1</t>
+          <t>1,42; 6,92</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>-2,24; 2,86</t>
+          <t>-2,47; 2,72</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>7,1; 14,04</t>
+          <t>7,02; 14,34</t>
         </is>
       </c>
     </row>
@@ -1439,47 +1439,47 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>3,04; 49,87</t>
+          <t>1,88; 49,58</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>-13,59; 27,7</t>
+          <t>-12,91; 30,33</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>42,08; 103,11</t>
+          <t>41,46; 99,59</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>1,23; 32,64</t>
+          <t>2,26; 35,3</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>-15,5; 13,91</t>
+          <t>-16,33; 14,96</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>11,13; 59,85</t>
+          <t>11,91; 59,68</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>7,66; 33,82</t>
+          <t>5,81; 32,41</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>-9,38; 13,74</t>
+          <t>-10,41; 13,15</t>
         </is>
       </c>
       <c r="K19" s="2" t="inlineStr">
         <is>
-          <t>31,15; 67,39</t>
+          <t>31,72; 68,52</t>
         </is>
       </c>
     </row>
@@ -1549,47 +1549,47 @@
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>-1,23; 2,61</t>
+          <t>-1,08; 2,72</t>
         </is>
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>-1,61; 2,23</t>
+          <t>-1,53; 2,4</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>1,25; 9,47</t>
+          <t>1,07; 9,42</t>
         </is>
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>-0,24; 4,36</t>
+          <t>-0,26; 4,38</t>
         </is>
       </c>
       <c r="G21" s="2" t="inlineStr">
         <is>
-          <t>-2,73; 1,7</t>
+          <t>-2,65; 1,66</t>
         </is>
       </c>
       <c r="H21" s="2" t="inlineStr">
         <is>
-          <t>6,47; 21,66</t>
+          <t>6,26; 22,25</t>
         </is>
       </c>
       <c r="I21" s="2" t="inlineStr">
         <is>
-          <t>-0,13; 2,85</t>
+          <t>-0,08; 2,91</t>
         </is>
       </c>
       <c r="J21" s="2" t="inlineStr">
         <is>
-          <t>-1,48; 1,55</t>
+          <t>-1,54; 1,49</t>
         </is>
       </c>
       <c r="K21" s="2" t="inlineStr">
         <is>
-          <t>5,53; 15,09</t>
+          <t>5,51; 15,81</t>
         </is>
       </c>
     </row>
@@ -1655,47 +1655,47 @@
       </c>
       <c r="C23" s="2" t="inlineStr">
         <is>
-          <t>-6,4; 15,18</t>
+          <t>-5,73; 15,82</t>
         </is>
       </c>
       <c r="D23" s="2" t="inlineStr">
         <is>
-          <t>-8,49; 12,95</t>
+          <t>-7,92; 14,26</t>
         </is>
       </c>
       <c r="E23" s="2" t="inlineStr">
         <is>
-          <t>7,16; 53,44</t>
+          <t>6,22; 53,24</t>
         </is>
       </c>
       <c r="F23" s="2" t="inlineStr">
         <is>
-          <t>-0,81; 15,43</t>
+          <t>-0,92; 15,5</t>
         </is>
       </c>
       <c r="G23" s="2" t="inlineStr">
         <is>
-          <t>-9,02; 6,03</t>
+          <t>-8,8; 5,84</t>
         </is>
       </c>
       <c r="H23" s="2" t="inlineStr">
         <is>
-          <t>21,79; 75,42</t>
+          <t>21,23; 78,83</t>
         </is>
       </c>
       <c r="I23" s="2" t="inlineStr">
         <is>
-          <t>-0,57; 12,3</t>
+          <t>-0,34; 12,62</t>
         </is>
       </c>
       <c r="J23" s="2" t="inlineStr">
         <is>
-          <t>-5,99; 6,77</t>
+          <t>-6,2; 6,54</t>
         </is>
       </c>
       <c r="K23" s="2" t="inlineStr">
         <is>
-          <t>22,54; 63,98</t>
+          <t>22,45; 65,63</t>
         </is>
       </c>
     </row>
